--- a/Prescaler Stuff.xlsx
+++ b/Prescaler Stuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wede\Documents\GitHub\Plexim_2k18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1150B-A926-4BB9-8673-7FC82D43B70F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF12382-E0CD-4747-BB87-0FA659561CBC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A4FC6783-6641-4D77-88C6-69B9A5920BF9}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
       </c>
       <c r="C2" s="1">
         <f>G2/D2-1</f>
-        <v>999999</v>
+        <v>399999.00000000006</v>
       </c>
       <c r="D2">
         <f>1/B2</f>
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
       </c>
       <c r="C3" s="1">
         <f>G2/D3-1</f>
-        <v>499999</v>
+        <v>199999.00000000003</v>
       </c>
       <c r="D3">
         <f>1/B3</f>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" s="1">
         <f>G2/D4-1</f>
-        <v>124999</v>
+        <v>49999.000000000007</v>
       </c>
       <c r="D4">
         <f>1/B4</f>
@@ -508,7 +508,7 @@
       </c>
       <c r="C5" s="1">
         <f>G2/D5-1</f>
-        <v>31249</v>
+        <v>12499.000000000002</v>
       </c>
       <c r="D5">
         <f>1/B5</f>
@@ -525,7 +525,7 @@
       </c>
       <c r="C6" s="1">
         <f>G2/D6-1</f>
-        <v>7811.5</v>
+        <v>3124.0000000000005</v>
       </c>
       <c r="D6">
         <f>1/B6</f>
